--- a/biology/Botanique/Diospyros_borbonica/Diospyros_borbonica.xlsx
+++ b/biology/Botanique/Diospyros_borbonica/Diospyros_borbonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diospyros borbonica, ou Bois noir des hauts, est une espèce de plante à fleurs de la famille des ébénacées. Elle est endémique de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien.
 </t>
@@ -511,13 +523,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Diospyros borbonica est un arbre dryade endémique de la Réunion rare en milieu naturel, qui peut atteindre jusqu’à 15 m de hauteur, poussant en basse altitude notamment dans certaines forêts de Saint-Philippe et les flancs escarpés de la Grande Chaloupe et de la Grande Ravine, fait d'un bois lisse, fin et dense et d'une écorce de couleur gris foncé à noir. C'est une espèce dioïque[2] possédant des feuilles de couleur vert clair qui s'assombrissent en vieillissant[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Diospyros borbonica est un arbre dryade endémique de la Réunion rare en milieu naturel, qui peut atteindre jusqu’à 15 m de hauteur, poussant en basse altitude notamment dans certaines forêts de Saint-Philippe et les flancs escarpés de la Grande Chaloupe et de la Grande Ravine, fait d'un bois lisse, fin et dense et d'une écorce de couleur gris foncé à noir. C'est une espèce dioïque possédant des feuilles de couleur vert clair qui s'assombrissent en vieillissant.
 C'est un arbre au port droit à grain serré de couleur jaune et veiné de rouge noir. Son bois est très dur avec une densité de 0,926[réf. nécessaire].
-Le Diospyros borbonica produit des petites baies de couleurs brun noirâtre qu'on récolte mûres au sol au mois de septembre à décembre, la plupart du temps les baies mûres sont dépulpées puis rapidement semées car les graines sèchent très vite, les graines germent très vite en zone humide sous les pieds mère (15 à 45 jours) mais la pousse est très lente (9 mois en pépinière à basse altitude et de 12 à 16 mois en espace naturel)[4].
+Le Diospyros borbonica produit des petites baies de couleurs brun noirâtre qu'on récolte mûres au sol au mois de septembre à décembre, la plupart du temps les baies mûres sont dépulpées puis rapidement semées car les graines sèchent très vite, les graines germent très vite en zone humide sous les pieds mère (15 à 45 jours) mais la pousse est très lente (9 mois en pépinière à basse altitude et de 12 à 16 mois en espace naturel).
 Ses feuilles allongées et pointues au bout rappellent celles du pied de sapote. Au stade juvénile, les nervures de teinte violette donnent du relief aux feuilles.
-Le Bois noir des hauts est protégé par l'arrêté ministériel du 27 novembre 2017[5]. Il fait partie du programme de reconstitution de la forêt semi-sèche de la Grande Chaloupe (Life+ Forêt sèche)[6].
+Le Bois noir des hauts est protégé par l'arrêté ministériel du 27 novembre 2017. Il fait partie du programme de reconstitution de la forêt semi-sèche de la Grande Chaloupe (Life+ Forêt sèche).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seul endémique de la Réunion appartenant à la famille des bois d’ébène, il était utilisé autre fois pour la charpente, la menuiserie et comme bois de charronnage.
 </t>
